--- a/results/minimal_seats-Ireland.xlsx
+++ b/results/minimal_seats-Ireland.xlsx
@@ -19,46 +19,46 @@
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">DL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP </t>
-  </si>
-  <si>
-    <t>Oth</t>
-  </si>
-  <si>
-    <t>PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP </t>
-  </si>
-  <si>
-    <t>ULA</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD </t>
-  </si>
-  <si>
-    <t>Aon</t>
+    <t>DL - Democratic Left (Democratic Left, DL)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)</t>
   </si>
   <si>
     <t>1992</t>
@@ -628,31 +628,31 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>24.00000000000001</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>30.00000000000001</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>7.000000000000003</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>13.00000000000001</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>17.00000000000001</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>6.000000000000002</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>4.000000000000002</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3.000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15">
